--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-689997.5032594876</v>
+        <v>-691885.0847758895</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>337.5440355849931</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>218.8608711122704</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.29033025312199</v>
+        <v>31.51591178597086</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>78.41905619296207</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>196.10508242172</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>200.9966871393561</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191321152</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>314.536601570254</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>27.45797858609852</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>213.6743229269902</v>
       </c>
     </row>
     <row r="11">
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>49.38162151975425</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>49.38162151975428</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>22.71958750778581</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002173</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>234.5175081001671</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.38210601524943</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002173</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,10 +2333,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2527,7 +2527,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056521</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>115.5269768002177</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>78.67531269948029</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>6.335616750270406</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>55.2159888357148</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>54.76109577523561</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373601</v>
       </c>
       <c r="H34" t="n">
         <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
         <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>1293.521057189058</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1293.521057189058</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1293.521057189058</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1715.075343644822</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1715.075343644822</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1715.075343644822</v>
       </c>
     </row>
     <row r="3">
@@ -4416,13 +4416,13 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>290.5651556036576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>290.5651556036576</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.5651556036576</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.321187657107</v>
+        <v>1236.578376364604</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1236.578376364604</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>878.3126777578536</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>878.3126777578536</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1795.460519632919</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1795.460519632919</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1795.460519632919</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>1405.321187657107</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4665,22 +4665,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.9284171545819</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>235.9284171545819</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545819</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>525.1020275000139</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.9284171545819</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340192</v>
+        <v>1723.03492661696</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936075</v>
+        <v>1354.072409676548</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685701</v>
+        <v>1354.072409676548</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097706</v>
+        <v>1354.072409676548</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177358</v>
+        <v>943.0865048869405</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036449</v>
+        <v>525.1226967851273</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036449</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733133</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224085</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791254</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548717</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205147</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935033</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673953</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698141</v>
+        <v>1723.03492661696</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614631</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014718</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.535689181137</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600568</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>670.9767331549068</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y10" t="n">
-        <v>450.1841540113767</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5197,22 +5197,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,19 +5224,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1449.035844780373</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1225.250429569879</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609663</v>
+        <v>936.1217907834368</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550795</v>
+        <v>681.4373025775499</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181188</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="X13" t="n">
         <v>392.0201325405893</v>
@@ -5261,46 +5261,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>931.865534024362</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,13 +5513,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>783.5599953231708</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5729,34 +5729,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5777,22 +5777,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5835,22 +5835,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609663</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550795</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>731.3177283550795</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>503.3281774570621</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>503.3281774570621</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,52 +5987,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,28 +6163,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765193</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706325</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336718</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028584</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028593</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028593</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028593</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E28" t="n">
-        <v>97.2170914602859</v>
+        <v>213.9110074201017</v>
       </c>
       <c r="F28" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011508</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583033</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028593</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028593</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636253</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542191</v>
+        <v>439.5324299542197</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542191</v>
+        <v>360.0624171264618</v>
       </c>
       <c r="D31" t="n">
-        <v>345.1766558232541</v>
+        <v>360.0624171264618</v>
       </c>
       <c r="E31" t="n">
-        <v>345.1766558232541</v>
+        <v>360.0624171264618</v>
       </c>
       <c r="F31" t="n">
-        <v>254.0475736067145</v>
+        <v>360.0624171264618</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>247.6479607276533</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667513</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962055</v>
@@ -6646,7 +6646,7 @@
         <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
         <v>1568.628130167071</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818939</v>
+        <v>902.6804289818941</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652474</v>
+        <v>730.4517433652477</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.420029503088</v>
+        <v>565.4200295030885</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6698,28 +6698,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G34" t="n">
         <v>221.529509210313</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
@@ -6938,25 +6938,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7081,7 +7081,7 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7151,31 +7151,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7187,34 +7187,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636253</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,10 +7345,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7388,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7494,22 +7494,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7673,10 +7673,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270186</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360576</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208054</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298194</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,28 +11376,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>73.53204524669997</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>148.539188463849</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>176.3280338692829</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,16 +23653,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338569</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>202.9900678812513</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338592</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>51.71984429841018</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.44987416668786</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271358</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>33.36825177059037</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965519</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>91.230706018012</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437407</v>
       </c>
       <c r="G31" t="n">
-        <v>104.9546950845501</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>9.566747394273988e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26317,7 +26317,7 @@
         <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="E2" t="n">
         <v>195514.5298688544</v>
@@ -26335,7 +26335,7 @@
         <v>195514.5298688545</v>
       </c>
       <c r="J2" t="n">
-        <v>195514.5298688545</v>
+        <v>195514.5298688544</v>
       </c>
       <c r="K2" t="n">
         <v>203411.0686726353</v>
@@ -26353,7 +26353,7 @@
         <v>205260.4424660711</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660712</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.333471679274226e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284565</v>
+        <v>44162.60530284574</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086676</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284565</v>
+        <v>44162.60530284578</v>
       </c>
     </row>
     <row r="4">
@@ -26421,7 +26421,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512225</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26430,34 +26430,34 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="J4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="J4" t="n">
-        <v>15045.66962143902</v>
-      </c>
       <c r="K4" t="n">
-        <v>33210.29213563557</v>
+        <v>33210.29213563567</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275956</v>
       </c>
-      <c r="M4" t="n">
-        <v>37464.45686275956</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>37464.45686275957</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275959</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26473,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.0780634095</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,7 +26503,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26525,43 +26525,43 @@
         <v>-34373.59384856126</v>
       </c>
       <c r="D6" t="n">
-        <v>-34373.59384856168</v>
+        <v>-34373.59384856134</v>
       </c>
       <c r="E6" t="n">
-        <v>-436678.5021781969</v>
+        <v>-436775.9613041696</v>
       </c>
       <c r="F6" t="n">
-        <v>88481.53429869867</v>
+        <v>88384.07517272649</v>
       </c>
       <c r="G6" t="n">
-        <v>88481.53429869867</v>
+        <v>88384.07517272652</v>
       </c>
       <c r="H6" t="n">
-        <v>88481.53429869867</v>
+        <v>88384.07517272655</v>
       </c>
       <c r="I6" t="n">
-        <v>88481.53429869839</v>
+        <v>88384.07517272657</v>
       </c>
       <c r="J6" t="n">
-        <v>-87941.68489389429</v>
+        <v>-88039.14401986641</v>
       </c>
       <c r="K6" t="n">
-        <v>29409.96270393129</v>
+        <v>29391.46896599674</v>
       </c>
       <c r="L6" t="n">
-        <v>59737.97298241935</v>
+        <v>59737.97298241938</v>
       </c>
       <c r="M6" t="n">
-        <v>-64720.13545055085</v>
+        <v>-64720.13545055103</v>
       </c>
       <c r="N6" t="n">
-        <v>70080.87978328616</v>
+        <v>70080.87978328606</v>
       </c>
       <c r="O6" t="n">
-        <v>70080.87978328629</v>
+        <v>70080.87978328623</v>
       </c>
       <c r="P6" t="n">
-        <v>25918.27448044048</v>
+        <v>25918.27448044044</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964062</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964062</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26741,37 +26741,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,10 +26811,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108356</v>
+        <v>12.92863350108345</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855722</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>69.3320101567183</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>130.3800976051427</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.5416499288153</v>
+        <v>148.3160683959664</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>328.4569895487493</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>131.6471760484149</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>24.03841831872822</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>375.9469818809407</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>9.386171194103156</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>198.2516768029386</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>4.910330425104604</v>
       </c>
     </row>
     <row r="11">
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="32">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32947,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33184,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,37 +33421,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33527,7 +33527,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,37 +33658,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,37 +33895,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.163256083918</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523302</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523304</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412272</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
@@ -36999,16 +36999,16 @@
         <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043195</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349766</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523304</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37719,7 +37719,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>383.9564222971663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
